--- a/data/trans_orig/P56S4-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P56S4-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C1ED6EE-D64A-413D-BB0E-FFB7BE4FFEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60B5E177-8271-475D-AD07-EC11A0045027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D84773A-9CF5-45BA-820B-1B5FC2933089}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A50B9602-2296-462A-AFB8-73F432F45E5A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498DFD22-B3B8-4F1D-8F5A-BB0F960A58EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DBA9D8-36A1-4AF9-8044-AEA980DA10EB}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2980,7 +2980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7423D437-88BD-4399-B61E-D5099526CC37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF22CDEF-8AF3-4555-8EB7-490BC4E25EB6}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P56S4-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P56S4-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60B5E177-8271-475D-AD07-EC11A0045027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC038227-F76E-4E33-81B8-27EB172D6A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A50B9602-2296-462A-AFB8-73F432F45E5A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA033EB7-ED17-4CC8-9ABB-80A726BEE101}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DBA9D8-36A1-4AF9-8044-AEA980DA10EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82194B91-BCAD-4DA7-B847-60ED3824729F}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2980,7 +2980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF22CDEF-8AF3-4555-8EB7-490BC4E25EB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BD2E90-7620-46F3-809F-D73EC91F67FE}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
